--- a/conf/KAPT 공동주택 현황-수정.xlsx
+++ b/conf/KAPT 공동주택 현황-수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
   <si>
     <t>단지코드</t>
   </si>
@@ -851,6 +851,18 @@
   </si>
   <si>
     <t>경기도 용인시 기흥구 이현로29번길 72-1</t>
+  </si>
+  <si>
+    <t>A10026498</t>
+  </si>
+  <si>
+    <t>효성빌라</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 언남동 123</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 언남로29번길 54</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3099,6 +3111,20 @@
         <v>279</v>
       </c>
     </row>
+    <row r="71" ht="13.55" customHeight="1">
+      <c r="A71" t="s" s="5">
+        <v>280</v>
+      </c>
+      <c r="B71" t="s" s="5">
+        <v>281</v>
+      </c>
+      <c r="C71" t="s" s="5">
+        <v>282</v>
+      </c>
+      <c r="D71" t="s" s="5">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/conf/KAPT 공동주택 현황-수정.xlsx
+++ b/conf/KAPT 공동주택 현황-수정.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
   <si>
     <t>단지코드</t>
   </si>
@@ -863,6 +863,18 @@
   </si>
   <si>
     <t>경기도 용인시 기흥구 언남로29번길 54</t>
+  </si>
+  <si>
+    <t>A10026093</t>
+  </si>
+  <si>
+    <t>용인기흥 우방아이유쉘 아파트</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 신갈동 734</t>
+  </si>
+  <si>
+    <t>경기도 용인시 기흥구 신정로41번길 31</t>
   </si>
 </sst>
 </file>
@@ -2118,7 +2130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3111,7 +3123,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
+    <row r="71" ht="16" customHeight="1">
       <c r="A71" t="s" s="5">
         <v>280</v>
       </c>
@@ -3123,6 +3135,20 @@
       </c>
       <c r="D71" t="s" s="5">
         <v>283</v>
+      </c>
+    </row>
+    <row r="72" ht="13.55" customHeight="1">
+      <c r="A72" t="s" s="5">
+        <v>284</v>
+      </c>
+      <c r="B72" t="s" s="5">
+        <v>285</v>
+      </c>
+      <c r="C72" t="s" s="5">
+        <v>286</v>
+      </c>
+      <c r="D72" t="s" s="5">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
